--- a/biology/Histoire de la zoologie et de la botanique/Christian_Frederik_Lütken/Christian_Frederik_Lütken.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Frederik_Lütken/Christian_Frederik_Lütken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christian_Frederik_L%C3%BCtken</t>
+          <t>Christian_Frederik_Lütken</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Frederik Lütken est un naturaliste danois, né le 4 octobre 1827 à Sorø et mort le 6 février 1901.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christian_Frederik_L%C3%BCtken</t>
+          <t>Christian_Frederik_Lütken</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une carrière dans l’armée danoise jusqu’en 1852, il décide de se consacrer entièrement à l’histoire naturelle et quitte l’armée avec un grade de premier lieutenant. De 1856 à 1862, il est Privatdozent à l’université de Copenhague et enseigne la zoologie. Il devient l’assistant de Japetus Steenstrup (1813-1897) au Muséum de zoologie de Copenhague.
 Il publie en 1861 le compte rendu de ses observations sur les insectes et les vertébrés et notamment Bidrag til Kundskab om Brasiliens Padder og Krybdyr, cosigné avec Johannes Theodor Reinhardt (1816-1882).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christian_Frederik_L%C3%BCtken</t>
+          <t>Christian_Frederik_Lütken</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1877 : Korte bidrag til nordisk Ichthyographi. I. Foreløbige Meddelelser om nordiske Ulkefiske (Cottoidei). Vidensk. Medd. Naturh. Foren. Kjøbenhavn 1876–1877 : 355–388, 72–98.
 1898 : The ichthyological results. Danish Ingolf Expedition, II. Copenhagen : 215–254, Pl. 1–4.</t>
